--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3138022.932635756</v>
+        <v>3136135.351119353</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>557017.7475385749</v>
+        <v>235432.9484469778</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>178.0961400445155</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>341.2578399936063</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>233.4543067672734</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2870685287893</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>305.2813040188396</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>330.8634606965035</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>301.6605072170733</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>25.31590541686297</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051978</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>229.9668931019087</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>136.8736401074743</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>55.21533678566921</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>101.289814786355</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.64243440663958</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>55.51369213499295</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2561,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,13 +2767,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>197.4013371170143</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.75325212739662</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571473</v>
+        <v>42.95895086650365</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523554</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.576038264086</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>1448.576038264086</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264086</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.118241157406</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.155724216995</v>
+        <v>787.2172442257645</v>
       </c>
       <c r="D5" t="n">
-        <v>1153.890025610244</v>
+        <v>787.2172442257645</v>
       </c>
       <c r="E5" t="n">
-        <v>768.101773012</v>
+        <v>787.2172442257645</v>
       </c>
       <c r="F5" t="n">
-        <v>761.1562722627965</v>
+        <v>780.271743476561</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>362.3079353747479</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.118241157406</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1667.156396867426</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="C8" t="n">
-        <v>1667.156396867426</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.890698260675</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>923.1024456624311</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>512.1165408728236</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733132</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186808</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843238</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843238</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.295728843238</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>1667.156396867426</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,40 +5030,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>836.471721275012</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.765035414674</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,10 +5291,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>791.4103545382638</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1559.778500930725</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1598612984387</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>394.2236783705318</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>1266.626479545873</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>1011.941991339986</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W16" t="n">
-        <v>1011.941991339986</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X16" t="n">
-        <v>783.9524404419689</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.1598612984387</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>260.0086112233903</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>385.3661712812277</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>999.2632410381163</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765183</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626376</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527472</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N24" t="n">
-        <v>1669.996816116898</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,10 +6145,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1477.055225702711</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1277.135215618263</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1277.135215618263</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1277.135215618263</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="W25" t="n">
-        <v>475.3232817706389</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X25" t="n">
-        <v>247.3337308726216</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6218,58 +6218,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626376</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>475.323281770639</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N30" t="n">
-        <v>2328.464088060424</v>
+        <v>2115.681725457454</v>
       </c>
       <c r="O30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>469.7096738188515</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="C31" t="n">
-        <v>356.5343561723155</v>
+        <v>439.5324299542173</v>
       </c>
       <c r="D31" t="n">
-        <v>356.5343561723155</v>
+        <v>345.1766558232523</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723155</v>
+        <v>253.0244275222301</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557758</v>
+        <v>253.0244275222301</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569674</v>
+        <v>140.6099711234209</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>140.6099711234209</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962061</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818961</v>
+        <v>902.6804289818923</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652497</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030905</v>
+        <v>565.4200295030863</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>535.4815126303854</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1303.849659022847</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>107.8930518312113</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>233.2506118890487</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>463.2137177573978</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>944.3337640853097</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1264.669083615011</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2069.080661879162</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103126</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>381.3300194168668</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M42" t="n">
-        <v>1149.698165809328</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1992.592004259735</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2512.892625995482</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>396.4775252873437</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>187.3601610345301</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>166.2050386946084</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>56.27045929666863</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>81.71101324462046</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338608</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>231.3076615509218</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>185.233183550236</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>88.32191799715338</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>231.0093062015981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>54.73630620681368</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.87547142598343</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896551</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801192</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897887</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>12.25703796921132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772962.0609560135</v>
+        <v>772962.0609560134</v>
       </c>
     </row>
     <row r="12">
@@ -26314,16 +26314,16 @@
         <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803346</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803341</v>
@@ -26332,16 +26332,16 @@
         <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524318</v>
+        <v>650915.4197524319</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914273</v>
       </c>
       <c r="M2" t="n">
         <v>656833.4158914274</v>
@@ -26350,10 +26350,10 @@
         <v>656833.4158914273</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914277</v>
+        <v>656833.4158914275</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914274</v>
+        <v>656833.4158914272</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284581</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759168</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905757948</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477247</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671466</v>
+        <v>-155052.6805671467</v>
       </c>
       <c r="C6" t="n">
         <v>434915.198647398</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473977</v>
+        <v>434915.1986473982</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.3394641458</v>
+        <v>7613.88033817317</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410416</v>
+        <v>532773.91681507</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410416</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="H6" t="n">
-        <v>532871.3759410419</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="I6" t="n">
-        <v>532871.3759410417</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="J6" t="n">
-        <v>356448.1567484488</v>
+        <v>356350.6976224763</v>
       </c>
       <c r="K6" t="n">
-        <v>491172.1897145907</v>
+        <v>491153.6959766568</v>
       </c>
       <c r="L6" t="n">
-        <v>525568.8223386382</v>
+        <v>525568.8223386386</v>
       </c>
       <c r="M6" t="n">
         <v>401110.7139056685</v>
@@ -26558,7 +26558,7 @@
         <v>535911.7291395055</v>
       </c>
       <c r="O6" t="n">
-        <v>535911.7291395059</v>
+        <v>535911.7291395058</v>
       </c>
       <c r="P6" t="n">
         <v>491749.1238366599</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>176.5869015761675</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>44.98009866244729</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>52.82756747470432</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>189.4971014920057</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>18.64146874551756</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>34.40943107450408</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1236628037217</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>261.207092919728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31379,13 +31379,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>233.290903646425</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>100.5826050876807</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31859,10 +31859,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>342.2955526785772</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>165.1824698748482</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32336,13 +32336,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,25 +32461,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,34 +32552,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,31 +32792,31 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>47.93166030412414</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>102.4943942860912</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094701</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,19 +33023,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>216.4869287318326</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33047,13 +33047,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>180.9230254788815</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,34 +33500,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>11.530389680728</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33746,7 +33746,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33758,13 +33758,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>328.7624288348231</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34214,31 +34214,31 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>54.69678998811287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>137.4075963926897</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34466,16 +34466,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>30.96596845457215</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>556.8619334744066</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>448.583267347901</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35507,10 +35507,10 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>574.5815182021622</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>164.4358785485904</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700523</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>265.1358132040104</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>395.9323225643444</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>286.9827555116981</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36610,13 +36610,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109142</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>343.1107267700522</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>56.01844895119682</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>274.515464094862</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>432.1891003111666</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>27.65065891473426</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>10.78379835447014</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>561.0483943584081</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>286.9827555116979</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>485.4082586529099</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>101.0614821043997</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
